--- a/data/trans_orig/IP34A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP34A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A8645D1-37CC-435F-A074-9A17D7DC53BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33F213A4-6648-4ECB-8FC1-B16EEA78BB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CEA3E6BA-A14C-48C2-A145-369836DDEAE4}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D997606A-2F04-40BC-A36B-AC3100469114}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,151 +65,175 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
     <t>44,41%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
     <t>53,46%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>28,06%</t>
   </si>
   <si>
     <t>64,62%</t>
   </si>
   <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
+    <t>mas de 50</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
   </si>
   <si>
     <t>19,56%</t>
@@ -218,28 +242,148 @@
     <t>81,57%</t>
   </si>
   <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
   </si>
   <si>
     <t>14,67%</t>
@@ -248,154 +392,10 @@
     <t>62,77%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
     <t>7,63%</t>
   </si>
   <si>
     <t>31,58%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
   </si>
 </sst>
 </file>
@@ -787,7 +787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDD941F-F682-461A-8E0C-3A78E1C29D11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF57D69-EBEA-48A0-B82D-1A0CE8139368}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -902,256 +902,226 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1162,302 +1132,266 @@
       <c r="C9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>798</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>798</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>2019</v>
+        <v>1991</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1466,57 +1400,51 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
-      </c>
-      <c r="I15" s="7">
-        <v>2327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M15" s="7">
-        <v>7</v>
-      </c>
-      <c r="N15" s="7">
-        <v>4898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B16" s="5">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1525,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1540,13 +1468,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1555,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1576,49 +1504,49 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>394</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1627,13 +1555,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1642,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1657,34 +1585,34 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>630</v>
+        <v>570</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1693,49 +1621,49 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>630</v>
+        <v>570</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1744,28 +1672,28 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,13 +1708,13 @@
         <v>708</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1795,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -1810,34 +1738,34 @@
         <v>708</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1846,49 +1774,49 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -1897,34 +1825,34 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -1933,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -1948,13 +1876,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -1963,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -1984,49 +1912,49 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>2019</v>
+        <v>1991</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2035,13 +1963,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2050,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2065,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,13 +2014,13 @@
         <v>2416</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2101,13 +2029,13 @@
         <v>394</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -2116,34 +2044,36 @@
         <v>2809</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B28" s="5">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
       <c r="E28" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2152,13 +2082,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2167,179 +2097,187 @@
         <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>595</v>
+      </c>
       <c r="E29" s="7" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>522</v>
+        <v>595</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
       <c r="E30" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>1242</v>
+        <v>461</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>1242</v>
+        <v>461</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
       <c r="E31" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
       <c r="E32" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2348,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2363,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,113 +2318,119 @@
       <c r="C33" s="7">
         <v>0</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="7">
-        <v>0</v>
+        <v>1068</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="7">
-        <v>0</v>
+        <v>1068</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
       <c r="E34" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>602</v>
+      </c>
       <c r="E35" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -2495,47 +2439,49 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
       <c r="E36" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2544,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -2559,111 +2505,115 @@
         <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1374</v>
+      </c>
       <c r="E37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" s="7">
+        <v>2</v>
+      </c>
+      <c r="N37" s="7">
+        <v>1375</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5">
-        <v>2019</v>
+        <v>1991</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
       <c r="E38" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="7">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,274 +2622,296 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2571</v>
+      </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H39" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" s="7">
-        <v>2670</v>
+        <v>2327</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M39" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N39" s="7">
-        <v>2670</v>
+        <v>4898</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B40" s="5">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
       <c r="E40" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
       </c>
-      <c r="N40" s="7"/>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
       <c r="O40" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
       <c r="E41" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
       </c>
-      <c r="N41" s="7"/>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
       <c r="O41" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
       </c>
-      <c r="D42" s="7"/>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
       <c r="E42" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
       </c>
-      <c r="N42" s="7"/>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
       <c r="O42" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
       </c>
-      <c r="D43" s="7"/>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
       <c r="E43" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
       </c>
-      <c r="N43" s="7"/>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
       <c r="O43" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
       <c r="E44" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
       </c>
-      <c r="N44" s="7"/>
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
       <c r="O44" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,266 +2922,290 @@
       <c r="C45" s="7">
         <v>0</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
       <c r="E45" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
       </c>
-      <c r="N45" s="7"/>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
       <c r="O45" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
       </c>
-      <c r="D46" s="7"/>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
       <c r="E46" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
       </c>
-      <c r="N46" s="7"/>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
       <c r="O46" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
       </c>
-      <c r="D47" s="7"/>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
       <c r="E47" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
       </c>
-      <c r="N47" s="7"/>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
       <c r="O47" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C48" s="7">
         <v>0</v>
       </c>
-      <c r="D48" s="7"/>
+      <c r="D48" s="7">
+        <v>0</v>
+      </c>
       <c r="E48" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
       </c>
-      <c r="N48" s="7"/>
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
       <c r="O48" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
       </c>
-      <c r="D49" s="7"/>
+      <c r="D49" s="7">
+        <v>0</v>
+      </c>
       <c r="E49" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
       </c>
-      <c r="N49" s="7"/>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
       <c r="O49" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>2019</v>
+        <v>1991</v>
       </c>
       <c r="C50" s="7">
-        <v>0</v>
-      </c>
-      <c r="D50" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="7">
+        <v>858</v>
+      </c>
       <c r="E50" s="7" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N50" s="7">
+        <v>858</v>
+      </c>
       <c r="O50" s="7" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,128 +3214,132 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>0</v>
-      </c>
-      <c r="D51" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="7">
+        <v>858</v>
+      </c>
       <c r="E51" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="N51" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N51" s="7">
+        <v>858</v>
+      </c>
       <c r="O51" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B52" s="5">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="C52" s="7">
-        <v>1</v>
-      </c>
-      <c r="D52" s="7">
-        <v>858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I52" s="7">
+        <v>354</v>
+      </c>
       <c r="J52" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
       </c>
       <c r="N52" s="7">
-        <v>858</v>
+        <v>354</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
       </c>
-      <c r="D53" s="7">
-        <v>0</v>
-      </c>
+      <c r="D53" s="7"/>
       <c r="E53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
-      <c r="I53" s="7"/>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
       <c r="J53" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -3348,47 +3348,47 @@
         <v>0</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C54" s="7">
         <v>0</v>
       </c>
-      <c r="D54" s="7">
-        <v>0</v>
-      </c>
+      <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
-      <c r="I54" s="7"/>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
       <c r="J54" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -3397,47 +3397,47 @@
         <v>0</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
       </c>
-      <c r="D55" s="7">
-        <v>0</v>
-      </c>
+      <c r="D55" s="7"/>
       <c r="E55" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
-      <c r="I55" s="7"/>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
       <c r="J55" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -3446,62 +3446,62 @@
         <v>0</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
       </c>
-      <c r="D56" s="7">
-        <v>0</v>
-      </c>
+      <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I56" s="7">
+        <v>552</v>
+      </c>
       <c r="J56" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="7">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,30 +3512,30 @@
       <c r="C57" s="7">
         <v>0</v>
       </c>
-      <c r="D57" s="7">
-        <v>0</v>
-      </c>
+      <c r="D57" s="7"/>
       <c r="E57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
-      <c r="I57" s="7"/>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
       <c r="J57" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="M57" s="7">
         <v>0</v>
@@ -3544,47 +3544,47 @@
         <v>0</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C58" s="7">
         <v>0</v>
       </c>
-      <c r="D58" s="7">
-        <v>0</v>
-      </c>
+      <c r="D58" s="7"/>
       <c r="E58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
       </c>
-      <c r="I58" s="7"/>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
       <c r="J58" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -3593,47 +3593,47 @@
         <v>0</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="C59" s="7">
         <v>0</v>
       </c>
-      <c r="D59" s="7">
-        <v>0</v>
-      </c>
+      <c r="D59" s="7"/>
       <c r="E59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
-      <c r="I59" s="7"/>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
       <c r="J59" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -3642,145 +3642,145 @@
         <v>0</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C60" s="7">
         <v>0</v>
       </c>
-      <c r="D60" s="7">
-        <v>0</v>
-      </c>
+      <c r="D60" s="7"/>
       <c r="E60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H60" s="7">
-        <v>0</v>
-      </c>
-      <c r="I60" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I60" s="7">
+        <v>1242</v>
+      </c>
       <c r="J60" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="7">
-        <v>0</v>
+        <v>1242</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="C61" s="7">
         <v>0</v>
       </c>
-      <c r="D61" s="7">
-        <v>0</v>
-      </c>
+      <c r="D61" s="7"/>
       <c r="E61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I61" s="7">
+        <v>522</v>
+      </c>
       <c r="J61" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="M61" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="7">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>2019</v>
+        <v>1991</v>
       </c>
       <c r="C62" s="7">
         <v>0</v>
       </c>
-      <c r="D62" s="7">
-        <v>0</v>
-      </c>
+      <c r="D62" s="7"/>
       <c r="E62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
-      <c r="I62" s="7"/>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
       <c r="J62" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -3789,13 +3789,13 @@
         <v>0</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,47 +3804,47 @@
         <v>3</v>
       </c>
       <c r="C63" s="7">
-        <v>1</v>
-      </c>
-      <c r="D63" s="7">
-        <v>858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D63" s="7"/>
       <c r="E63" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I63" s="7">
+        <v>2670</v>
+      </c>
       <c r="J63" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="M63" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N63" s="7">
-        <v>858</v>
+        <v>2670</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,34 +3852,34 @@
         <v>3</v>
       </c>
       <c r="B64" s="5">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="C64" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="7">
-        <v>858</v>
+        <v>0</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="7" t="s">
+      <c r="H64" s="7">
+        <v>1</v>
+      </c>
+      <c r="I64" s="7">
+        <v>354</v>
+      </c>
+      <c r="J64" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
-      <c r="I64" s="7">
-        <v>0</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K64" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>70</v>
@@ -3888,13 +3888,13 @@
         <v>1</v>
       </c>
       <c r="N64" s="7">
-        <v>858</v>
+        <v>354</v>
       </c>
       <c r="O64" s="7" t="s">
         <v>71</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q64" s="7" t="s">
         <v>72</v>
@@ -3903,58 +3903,58 @@
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="C65" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" s="7">
-        <v>1375</v>
+        <v>595</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H65" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>916</v>
+        <v>0</v>
       </c>
       <c r="J65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L65" s="7" t="s">
+      <c r="M65" s="7">
+        <v>1</v>
+      </c>
+      <c r="N65" s="7">
+        <v>595</v>
+      </c>
+      <c r="O65" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M65" s="7">
-        <v>4</v>
-      </c>
-      <c r="N65" s="7">
-        <v>2291</v>
-      </c>
-      <c r="O65" s="7" t="s">
+      <c r="P65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q65" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C66" s="7">
         <v>0</v>
@@ -3963,145 +3963,145 @@
         <v>0</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G66" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="7">
+        <v>1</v>
+      </c>
+      <c r="I66" s="7">
+        <v>461</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M66" s="7">
+        <v>1</v>
+      </c>
+      <c r="N66" s="7">
+        <v>461</v>
+      </c>
+      <c r="O66" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H66" s="7">
-        <v>1</v>
-      </c>
-      <c r="I66" s="7">
-        <v>1242</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M66" s="7">
-        <v>1</v>
-      </c>
-      <c r="N66" s="7">
-        <v>1242</v>
-      </c>
-      <c r="O66" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="P66" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="C67" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="7">
-        <v>1232</v>
+        <v>570</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H67" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="7">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="M67" s="7">
         <v>2</v>
       </c>
       <c r="N67" s="7">
-        <v>1232</v>
+        <v>1367</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C68" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="7">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="E68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" s="7">
+        <v>1</v>
+      </c>
+      <c r="I68" s="7">
+        <v>552</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M68" s="7">
+        <v>1</v>
+      </c>
+      <c r="N68" s="7">
+        <v>552</v>
+      </c>
+      <c r="O68" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="7" t="s">
+      <c r="P68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q68" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H68" s="7">
-        <v>0</v>
-      </c>
-      <c r="I68" s="7">
-        <v>0</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M68" s="7">
-        <v>1</v>
-      </c>
-      <c r="N68" s="7">
-        <v>508</v>
-      </c>
-      <c r="O68" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P68" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4116,13 @@
         <v>708</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
@@ -4131,13 +4131,13 @@
         <v>1068</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M69" s="7">
         <v>2</v>
@@ -4146,121 +4146,121 @@
         <v>1777</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C70" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="7">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="H70" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="J70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M70" s="7">
+        <v>1</v>
+      </c>
+      <c r="N70" s="7">
+        <v>508</v>
+      </c>
+      <c r="O70" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L70" s="7" t="s">
+      <c r="P70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q70" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="M70" s="7">
-        <v>1</v>
-      </c>
-      <c r="N70" s="7">
-        <v>552</v>
-      </c>
-      <c r="O70" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="5">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="C71" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" s="7">
-        <v>570</v>
+        <v>1232</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H71" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>798</v>
+        <v>0</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="M71" s="7">
         <v>2</v>
       </c>
       <c r="N71" s="7">
-        <v>1367</v>
+        <v>1232</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="5">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C72" s="7">
         <v>0</v>
@@ -4269,91 +4269,91 @@
         <v>0</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
       </c>
       <c r="I72" s="7">
-        <v>461</v>
+        <v>1242</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M72" s="7">
         <v>1</v>
       </c>
       <c r="N72" s="7">
-        <v>461</v>
+        <v>1242</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="C73" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" s="7">
-        <v>595</v>
+        <v>1375</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H73" s="7">
+        <v>2</v>
+      </c>
+      <c r="I73" s="7">
+        <v>916</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="7" t="s">
+      <c r="M73" s="7">
+        <v>4</v>
+      </c>
+      <c r="N73" s="7">
+        <v>2291</v>
+      </c>
+      <c r="O73" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H73" s="7">
-        <v>0</v>
-      </c>
-      <c r="I73" s="7">
-        <v>0</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M73" s="7">
-        <v>1</v>
-      </c>
-      <c r="N73" s="7">
-        <v>595</v>
-      </c>
-      <c r="O73" s="7" t="s">
+      <c r="P73" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P73" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="Q73" s="7" t="s">
         <v>115</v>
@@ -4362,49 +4362,49 @@
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="5">
-        <v>2019</v>
+        <v>1991</v>
       </c>
       <c r="C74" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="7">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="H74" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="7">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="M74" s="7">
         <v>1</v>
       </c>
       <c r="N74" s="7">
-        <v>354</v>
+        <v>858</v>
       </c>
       <c r="O74" s="7" t="s">
         <v>118</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q74" s="7" t="s">
         <v>119</v>
@@ -4422,13 +4422,13 @@
         <v>5845</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H75" s="7">
         <v>8</v>
@@ -4437,13 +4437,13 @@
         <v>5391</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M75" s="7">
         <v>17</v>
@@ -4452,13 +4452,13 @@
         <v>11236</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP34A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP34A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33F213A4-6648-4ECB-8FC1-B16EEA78BB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4BDD610-48D2-4D50-B0CC-0536830C9ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D997606A-2F04-40BC-A36B-AC3100469114}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA1C1935-2B03-4CA0-865F-5878EFBF1D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="122">
   <si>
     <t>Adultos según el año que llegaron a España en 2023 (Tasa respuesta: 0,89%)</t>
   </si>
@@ -92,36 +92,39 @@
     <t>23,59%</t>
   </si>
   <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
     <t>18,08%</t>
   </si>
   <si>
+    <t>77,94%</t>
+  </si>
+  <si>
     <t>26,07%</t>
   </si>
   <si>
@@ -131,7 +134,7 @@
     <t>22,41%</t>
   </si>
   <si>
-    <t>86,48%</t>
+    <t>81,95%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -143,7 +146,7 @@
     <t>14,02%</t>
   </si>
   <si>
-    <t>73,72%</t>
+    <t>70,89%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -158,10 +161,13 @@
     <t>23,13%</t>
   </si>
   <si>
+    <t>74,77%</t>
+  </si>
+  <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>56,75%</t>
+    <t>55,72%</t>
   </si>
   <si>
     <t>19,81%</t>
@@ -170,7 +176,7 @@
     <t>9,41%</t>
   </si>
   <si>
-    <t>36,64%</t>
+    <t>49,59%</t>
   </si>
   <si>
     <t>34,28%</t>
@@ -179,7 +185,7 @@
     <t>16,28%</t>
   </si>
   <si>
-    <t>63,8%</t>
+    <t>65,19%</t>
   </si>
   <si>
     <t>45,91%</t>
@@ -188,19 +194,16 @@
     <t>21,81%</t>
   </si>
   <si>
-    <t>71,18%</t>
+    <t>71,89%</t>
   </si>
   <si>
     <t>23,41%</t>
   </si>
   <si>
-    <t>75,23%</t>
-  </si>
-  <si>
     <t>12,29%</t>
   </si>
   <si>
-    <t>56,26%</t>
+    <t>56,31%</t>
   </si>
   <si>
     <t>53,46%</t>
@@ -209,7 +212,7 @@
     <t>28,06%</t>
   </si>
   <si>
-    <t>64,62%</t>
+    <t>70,19%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -233,9 +236,6 @@
     <t>46,51%</t>
   </si>
   <si>
-    <t>92,6%</t>
-  </si>
-  <si>
     <t>19,56%</t>
   </si>
   <si>
@@ -248,19 +248,19 @@
     <t>6,56%</t>
   </si>
   <si>
-    <t>39,24%</t>
+    <t>39,14%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>17,51%</t>
+    <t>23,72%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>44,75%</t>
+    <t>46,07%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -269,70 +269,73 @@
     <t>5,29%</t>
   </si>
   <si>
-    <t>24,24%</t>
+    <t>23,58%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>40,97%</t>
+    <t>39,36%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
+    <t>22,89%</t>
+  </si>
+  <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>43,43%</t>
+    <t>50,53%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>65,93%</t>
+    <t>63,83%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>38,75%</t>
+    <t>38,51%</t>
   </si>
   <si>
     <t>10,24%</t>
   </si>
   <si>
-    <t>47,61%</t>
+    <t>47,87%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>22,76%</t>
+    <t>22,97%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>48,0%</t>
+    <t>48,97%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>70,38%</t>
+    <t>68,43%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>44,99%</t>
+    <t>46,83%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>39,66%</t>
+    <t>38,84%</t>
   </si>
   <si>
     <t>4,52%</t>
@@ -344,58 +347,61 @@
     <t>21,07%</t>
   </si>
   <si>
-    <t>57,39%</t>
+    <t>56,96%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>36,22%</t>
+    <t>34,33%</t>
   </si>
   <si>
     <t>23,04%</t>
   </si>
   <si>
-    <t>72,91%</t>
+    <t>73,31%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>40,56%</t>
+    <t>46,82%</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>57,72%</t>
+    <t>59,18%</t>
   </si>
   <si>
     <t>16,99%</t>
   </si>
   <si>
-    <t>53,25%</t>
+    <t>57,04%</t>
   </si>
   <si>
     <t>20,39%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
   </si>
   <si>
     <t>14,67%</t>
   </si>
   <si>
-    <t>62,77%</t>
+    <t>58,33%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>31,58%</t>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -406,7 +412,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -502,39 +508,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -586,7 +592,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -697,13 +703,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -712,6 +711,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -776,19 +782,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF57D69-EBEA-48A0-B82D-1A0CE8139368}">
-  <dimension ref="A1:Q75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3AF198-BA29-425C-B711-AC78692B9B5D}">
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1795,7 +1821,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1836,13 @@
         <v>630</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -1840,13 +1866,13 @@
         <v>630</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1953,13 @@
         <v>394</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -1942,13 +1968,13 @@
         <v>394</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,13 +2040,13 @@
         <v>2416</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2029,13 +2055,13 @@
         <v>394</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -2044,18 +2070,18 @@
         <v>2809</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="5">
         <v>2019</v>
@@ -2088,7 +2114,7 @@
         <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2103,7 +2129,7 @@
         <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,13 +2144,13 @@
         <v>595</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2139,7 +2165,7 @@
         <v>13</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2148,13 +2174,13 @@
         <v>595</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,13 +2210,13 @@
         <v>461</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2199,13 +2225,13 @@
         <v>461</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2261,13 @@
         <v>798</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2250,13 +2276,13 @@
         <v>798</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,7 +2318,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2307,7 +2333,7 @@
         <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2363,13 @@
         <v>1068</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -2352,13 +2378,13 @@
         <v>1068</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,7 +2420,7 @@
         <v>13</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2409,7 +2435,7 @@
         <v>13</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2450,13 @@
         <v>602</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -2445,7 +2471,7 @@
         <v>13</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -2454,13 +2480,13 @@
         <v>602</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,7 +2522,7 @@
         <v>13</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -2511,7 +2537,7 @@
         <v>13</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2552,13 @@
         <v>1374</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2547,7 +2573,7 @@
         <v>13</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -2556,13 +2582,13 @@
         <v>1375</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,7 +2624,7 @@
         <v>13</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -2613,7 +2639,7 @@
         <v>13</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2654,13 @@
         <v>2571</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -2643,13 +2669,13 @@
         <v>2327</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M39" s="7">
         <v>7</v>
@@ -2658,18 +2684,18 @@
         <v>4898</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" s="5">
         <v>2019</v>
@@ -3171,13 +3197,13 @@
         <v>858</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3199,13 +3225,13 @@
         <v>858</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3246,13 @@
         <v>858</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -3248,18 +3274,18 @@
         <v>858</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5">
         <v>2019</v>
@@ -3284,13 +3310,13 @@
         <v>354</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -3299,13 +3325,13 @@
         <v>354</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3506,13 @@
         <v>552</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M56" s="7">
         <v>1</v>
@@ -3495,13 +3521,13 @@
         <v>552</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3702,13 @@
         <v>1242</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M60" s="7">
         <v>1</v>
@@ -3691,13 +3717,13 @@
         <v>1242</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,13 +3849,13 @@
         <v>2670</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M63" s="7">
         <v>4</v>
@@ -3838,13 +3864,13 @@
         <v>2670</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,7 +4025,7 @@
         <v>12</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4040,13 @@
         <v>570</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -4029,13 +4055,13 @@
         <v>798</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M67" s="7">
         <v>2</v>
@@ -4044,13 +4070,13 @@
         <v>1367</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4106,13 @@
         <v>552</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M68" s="7">
         <v>1</v>
@@ -4095,13 +4121,13 @@
         <v>552</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4142,13 @@
         <v>708</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
@@ -4131,13 +4157,13 @@
         <v>1068</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M69" s="7">
         <v>2</v>
@@ -4146,13 +4172,13 @@
         <v>1777</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4193,13 @@
         <v>508</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -4197,13 +4223,13 @@
         <v>508</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4244,13 @@
         <v>1232</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -4248,13 +4274,13 @@
         <v>1232</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4310,13 @@
         <v>1242</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M72" s="7">
         <v>1</v>
@@ -4299,13 +4325,13 @@
         <v>1242</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4346,13 @@
         <v>1375</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H73" s="7">
         <v>2</v>
@@ -4335,13 +4361,13 @@
         <v>916</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M73" s="7">
         <v>4</v>
@@ -4350,13 +4376,13 @@
         <v>2291</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4397,13 @@
         <v>858</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -4401,13 +4427,13 @@
         <v>858</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4448,13 @@
         <v>5845</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H75" s="7">
         <v>8</v>
@@ -4437,13 +4463,13 @@
         <v>5391</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M75" s="7">
         <v>17</v>
@@ -4452,13 +4478,18 @@
         <v>11236</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP34A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP34A_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4BDD610-48D2-4D50-B0CC-0536830C9ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC91EA99-6E49-49E0-A718-64A8885B5939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA1C1935-2B03-4CA0-865F-5878EFBF1D5F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD3806CF-9F94-4C63-8534-F01F573ED2E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="123">
   <si>
     <t>Adultos según el año que llegaron a España en 2023 (Tasa respuesta: 0,89%)</t>
   </si>
@@ -65,13 +65,13 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -92,37 +92,37 @@
     <t>23,59%</t>
   </si>
   <si>
-    <t>90,12%</t>
+    <t>100,0%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>85,26%</t>
+    <t>78,88%</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>80,71%</t>
+    <t>85,02%</t>
   </si>
   <si>
     <t>25,21%</t>
   </si>
   <si>
-    <t>83,26%</t>
+    <t>84,7%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>100,0%</t>
+    <t>72,78%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>77,94%</t>
+    <t>83,76%</t>
   </si>
   <si>
     <t>26,07%</t>
@@ -134,7 +134,7 @@
     <t>22,41%</t>
   </si>
   <si>
-    <t>81,95%</t>
+    <t>80,05%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -146,10 +146,10 @@
     <t>14,02%</t>
   </si>
   <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -161,13 +161,10 @@
     <t>23,13%</t>
   </si>
   <si>
-    <t>74,77%</t>
-  </si>
-  <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>55,72%</t>
+    <t>58,19%</t>
   </si>
   <si>
     <t>19,81%</t>
@@ -176,7 +173,7 @@
     <t>9,41%</t>
   </si>
   <si>
-    <t>49,59%</t>
+    <t>49,2%</t>
   </si>
   <si>
     <t>34,28%</t>
@@ -185,7 +182,7 @@
     <t>16,28%</t>
   </si>
   <si>
-    <t>65,19%</t>
+    <t>66,88%</t>
   </si>
   <si>
     <t>45,91%</t>
@@ -194,16 +191,19 @@
     <t>21,81%</t>
   </si>
   <si>
-    <t>71,89%</t>
+    <t>70,38%</t>
   </si>
   <si>
     <t>23,41%</t>
   </si>
   <si>
+    <t>92,22%</t>
+  </si>
+  <si>
     <t>12,29%</t>
   </si>
   <si>
-    <t>56,31%</t>
+    <t>56,4%</t>
   </si>
   <si>
     <t>53,46%</t>
@@ -212,10 +212,10 @@
     <t>28,06%</t>
   </si>
   <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -236,6 +236,9 @@
     <t>46,51%</t>
   </si>
   <si>
+    <t>91,32%</t>
+  </si>
+  <si>
     <t>19,56%</t>
   </si>
   <si>
@@ -248,19 +251,19 @@
     <t>6,56%</t>
   </si>
   <si>
-    <t>39,14%</t>
+    <t>35,6%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>23,72%</t>
+    <t>14,94%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>46,07%</t>
+    <t>43,92%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -269,136 +272,136 @@
     <t>5,29%</t>
   </si>
   <si>
-    <t>23,58%</t>
+    <t>25,82%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>39,36%</t>
+    <t>40,98%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>22,89%</t>
+    <t>22,62%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>50,53%</t>
+    <t>42,58%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>63,83%</t>
+    <t>66,06%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>38,51%</t>
+    <t>41,17%</t>
   </si>
   <si>
     <t>10,24%</t>
   </si>
   <si>
-    <t>47,87%</t>
+    <t>50,93%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>22,97%</t>
+    <t>23,88%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>48,97%</t>
+    <t>48,43%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>68,43%</t>
+    <t>69,91%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>46,83%</t>
+    <t>43,73%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>38,84%</t>
+    <t>40,11%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>20,57%</t>
+    <t>23,78%</t>
   </si>
   <si>
     <t>21,07%</t>
   </si>
   <si>
-    <t>56,96%</t>
+    <t>63,78%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>34,33%</t>
+    <t>33,12%</t>
   </si>
   <si>
     <t>23,04%</t>
   </si>
   <si>
-    <t>73,31%</t>
+    <t>70,44%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>46,82%</t>
+    <t>41,73%</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>59,18%</t>
+    <t>63,86%</t>
   </si>
   <si>
     <t>16,99%</t>
   </si>
   <si>
-    <t>57,04%</t>
+    <t>56,58%</t>
   </si>
   <si>
     <t>20,39%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
   </si>
   <si>
     <t>14,67%</t>
   </si>
   <si>
-    <t>58,33%</t>
+    <t>53,9%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>34,65%</t>
+    <t>35,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -813,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3AF198-BA29-425C-B711-AC78692B9B5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD99E32B-945E-4A70-8F38-0F013C0ED4A7}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1953,7 +1956,7 @@
         <v>394</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>33</v>
@@ -2150,7 +2153,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2174,13 +2177,13 @@
         <v>595</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2213,13 @@
         <v>461</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2225,13 +2228,13 @@
         <v>461</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2264,13 @@
         <v>798</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2276,13 +2279,13 @@
         <v>798</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2366,13 @@
         <v>1068</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -2378,13 +2381,13 @@
         <v>1068</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,13 +2453,13 @@
         <v>602</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -2558,7 +2561,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3197,7 +3200,7 @@
         <v>858</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>33</v>
@@ -3225,7 +3228,7 @@
         <v>858</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>33</v>
@@ -3708,7 +3711,7 @@
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M60" s="7">
         <v>1</v>
@@ -3723,7 +3726,7 @@
         <v>12</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3754,13 @@
         <v>522</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -3766,13 +3769,13 @@
         <v>522</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,7 +3896,7 @@
         <v>13</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -3902,13 +3905,13 @@
         <v>354</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M64" s="7">
         <v>1</v>
@@ -3917,13 +3920,13 @@
         <v>354</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3941,13 @@
         <v>595</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -3959,7 +3962,7 @@
         <v>13</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -3968,13 +3971,13 @@
         <v>595</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,7 +3998,7 @@
         <v>13</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H66" s="7">
         <v>1</v>
@@ -4004,13 +4007,13 @@
         <v>461</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
@@ -4019,13 +4022,13 @@
         <v>461</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4043,13 @@
         <v>570</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -4055,13 +4058,13 @@
         <v>798</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M67" s="7">
         <v>2</v>
@@ -4070,13 +4073,13 @@
         <v>1367</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,7 +4100,7 @@
         <v>13</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -4106,13 +4109,13 @@
         <v>552</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M68" s="7">
         <v>1</v>
@@ -4121,13 +4124,13 @@
         <v>552</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4145,13 @@
         <v>708</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
@@ -4157,13 +4160,13 @@
         <v>1068</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M69" s="7">
         <v>2</v>
@@ -4172,13 +4175,13 @@
         <v>1777</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4196,13 @@
         <v>508</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -4214,7 +4217,7 @@
         <v>13</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -4223,13 +4226,13 @@
         <v>508</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4247,13 @@
         <v>1232</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -4265,7 +4268,7 @@
         <v>13</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M71" s="7">
         <v>2</v>
@@ -4274,13 +4277,13 @@
         <v>1232</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,7 +4304,7 @@
         <v>13</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
@@ -4310,13 +4313,13 @@
         <v>1242</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M72" s="7">
         <v>1</v>
@@ -4325,13 +4328,13 @@
         <v>1242</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4349,13 @@
         <v>1375</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H73" s="7">
         <v>2</v>
@@ -4361,13 +4364,13 @@
         <v>916</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M73" s="7">
         <v>4</v>
@@ -4376,13 +4379,13 @@
         <v>2291</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4400,13 @@
         <v>858</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -4418,7 +4421,7 @@
         <v>13</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M74" s="7">
         <v>1</v>
@@ -4427,13 +4430,13 @@
         <v>858</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,7 +4492,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
